--- a/Stock_Analysis.xlsx
+++ b/Stock_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjunkulkarni/Desktop/INVEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A919774F-C04C-2B4A-B311-70AEC024C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D40C24-4924-194B-BBCF-7663195141FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27620" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Analysis" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,104 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -712,17 +809,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -763,22 +860,22 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>124.419174</v>
+        <v>120.658394</v>
       </c>
       <c r="C2">
-        <v>20.82592</v>
+        <v>20.085756</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1457784619008</v>
+        <v>1405974216704</v>
       </c>
       <c r="F2">
         <v>20.388999999999999</v>
       </c>
       <c r="G2">
-        <v>0.80373463980720528</v>
+        <v>0.82878610169467359</v>
       </c>
       <c r="H2">
         <v>18.077999999999999</v>
@@ -792,22 +889,22 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>42.672153000000002</v>
+        <v>41.779969999999999</v>
       </c>
       <c r="C3">
-        <v>68.760283999999999</v>
+        <v>67.544464000000005</v>
       </c>
       <c r="D3">
         <v>0.39</v>
       </c>
       <c r="E3">
-        <v>3915294179328</v>
+        <v>3846064046080</v>
       </c>
       <c r="F3">
         <v>157.41299000000001</v>
       </c>
       <c r="G3">
-        <v>2.3434486654563691</v>
+        <v>2.3934914266333851</v>
       </c>
       <c r="H3">
         <v>209.059</v>
@@ -821,22 +918,22 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>36.117890000000003</v>
+        <v>35.501240000000003</v>
       </c>
       <c r="C4">
-        <v>11.32272</v>
+        <v>11.092703999999999</v>
       </c>
       <c r="D4">
         <v>0.76</v>
       </c>
       <c r="E4">
-        <v>3257295175680</v>
+        <v>3191124787200</v>
       </c>
       <c r="F4">
         <v>35.603999999999999</v>
       </c>
       <c r="G4">
-        <v>2.7687110182793071</v>
+        <v>2.8168030187114592</v>
       </c>
       <c r="H4">
         <v>33.656999999999996</v>
@@ -850,22 +947,22 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>48.618842999999998</v>
+        <v>47.470089999999999</v>
       </c>
       <c r="C5">
-        <v>9.209085</v>
+        <v>9.0107479999999995</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>2387430866944</v>
+        <v>2336012632064</v>
       </c>
       <c r="F5">
         <v>22.558</v>
       </c>
       <c r="G5">
-        <v>2.0568157082635641</v>
+        <v>2.1065896441317049</v>
       </c>
       <c r="H5">
         <v>61.174999999999997</v>
@@ -879,22 +976,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>25.976095000000001</v>
+        <v>25.468789999999998</v>
       </c>
       <c r="C6">
-        <v>7.6367469999999997</v>
+        <v>7.4876037000000002</v>
       </c>
       <c r="D6">
         <v>0.42</v>
       </c>
       <c r="E6">
-        <v>2402398502912</v>
+        <v>2355710394368</v>
       </c>
       <c r="F6">
         <v>32.101002000000001</v>
       </c>
       <c r="G6">
-        <v>3.8496933430525262</v>
+        <v>3.926374201522727</v>
       </c>
       <c r="H6">
         <v>9.3239999999999998</v>
@@ -908,22 +1005,22 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>28.446487000000001</v>
+        <v>28.019829999999999</v>
       </c>
       <c r="C7">
-        <v>9.2558220000000002</v>
+        <v>9.1041030000000003</v>
       </c>
       <c r="D7">
         <v>0.34</v>
       </c>
       <c r="E7">
-        <v>1523151011840</v>
+        <v>1498183892992</v>
       </c>
       <c r="F7">
         <v>36.134</v>
       </c>
       <c r="G7">
-        <v>3.5153725660395252</v>
+        <v>3.568901024738552</v>
       </c>
       <c r="H7">
         <v>29.811</v>
@@ -937,22 +1034,22 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>55.09055</v>
+        <v>53.972369999999998</v>
       </c>
       <c r="C8">
-        <v>80.23509</v>
+        <v>78.297070000000005</v>
       </c>
       <c r="D8">
         <v>2.9999998999999999E-2</v>
       </c>
       <c r="E8">
-        <v>3426885566464</v>
+        <v>3344111763456</v>
       </c>
       <c r="F8">
         <v>123.767</v>
       </c>
       <c r="G8">
-        <v>1.8151933498576429</v>
+        <v>1.852799867784201</v>
       </c>
       <c r="H8">
         <v>17.221</v>
@@ -966,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>9.2855989999999995</v>
+        <v>9.2534369999999999</v>
       </c>
       <c r="C9">
-        <v>1.0494562999999999E-3</v>
+        <v>1.0458214000000001E-3</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>989661626368</v>
+        <v>985977651200</v>
       </c>
       <c r="F9">
         <v>18.441998999999999</v>
       </c>
       <c r="G9">
-        <v>10.769364475032789</v>
+        <v>10.806795356147131</v>
       </c>
       <c r="H9">
         <v>19.707000000000001</v>
@@ -995,22 +1092,22 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>33.015430000000002</v>
+        <v>32.845680000000002</v>
       </c>
       <c r="C10">
-        <v>15.983962</v>
+        <v>15.901778999999999</v>
       </c>
       <c r="D10">
         <v>0.74</v>
       </c>
       <c r="E10">
-        <v>621432602624</v>
+        <v>618237460480</v>
       </c>
       <c r="F10">
         <v>50.707999999999998</v>
       </c>
       <c r="G10">
-        <v>3.028886796264656</v>
+        <v>3.0445404083581158</v>
       </c>
       <c r="H10">
         <v>53.238999999999997</v>
@@ -1024,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>13.522803</v>
+        <v>13.414675000000001</v>
       </c>
       <c r="C11">
-        <v>2.1115067000000001</v>
+        <v>2.0957880000000002</v>
       </c>
       <c r="D11">
         <v>2.1</v>
       </c>
       <c r="E11">
-        <v>684521750528</v>
+        <v>679425998848</v>
       </c>
       <c r="F11">
         <v>16.216000000000001</v>
       </c>
       <c r="G11">
-        <v>7.3949165716604766</v>
+        <v>7.4545227521352544</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -1053,22 +1150,22 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>24.062809000000001</v>
+        <v>24.024751999999999</v>
       </c>
       <c r="C12">
-        <v>4.9951962999999999</v>
+        <v>4.995539</v>
       </c>
       <c r="D12">
         <v>3.43</v>
       </c>
       <c r="E12">
-        <v>350501339136</v>
+        <v>350525390848</v>
       </c>
       <c r="F12">
         <v>20.888999999999999</v>
       </c>
       <c r="G12">
-        <v>4.1557907890138672</v>
+        <v>4.1623738717469383</v>
       </c>
       <c r="H12">
         <v>50.957999999999998</v>
@@ -1082,22 +1179,22 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>38.342976</v>
+        <v>37.801654999999997</v>
       </c>
       <c r="C13">
-        <v>8.9118329999999997</v>
+        <v>8.786016</v>
       </c>
       <c r="D13">
         <v>0.9900000000000001</v>
       </c>
       <c r="E13">
-        <v>745418260480</v>
+        <v>734894555136</v>
       </c>
       <c r="F13">
         <v>18.531998999999999</v>
       </c>
       <c r="G13">
-        <v>2.6080396054808062</v>
+        <v>2.6453868223494452</v>
       </c>
       <c r="H13">
         <v>69.566000000000003</v>
@@ -1111,22 +1208,22 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>29.388601000000001</v>
+        <v>29.351724999999998</v>
       </c>
       <c r="C14">
-        <v>7.8501570000000003</v>
+        <v>7.8538474999999996</v>
       </c>
       <c r="D14">
         <v>2.4</v>
       </c>
       <c r="E14">
-        <v>400733601792</v>
+        <v>400922017792</v>
       </c>
       <c r="F14">
         <v>28.765999999999998</v>
       </c>
       <c r="G14">
-        <v>3.402679834946889</v>
+        <v>3.406954787154759</v>
       </c>
       <c r="H14">
         <v>69.337999999999994</v>
@@ -1140,22 +1237,22 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>13.261519</v>
+        <v>13.33873</v>
       </c>
       <c r="C15">
-        <v>1.7425382</v>
+        <v>1.7526835999999999</v>
       </c>
       <c r="D15">
         <v>3.74</v>
       </c>
       <c r="E15">
-        <v>468033110016</v>
+        <v>470758096896</v>
       </c>
       <c r="F15">
         <v>14.513999</v>
       </c>
       <c r="G15">
-        <v>7.5406143142425854</v>
+        <v>7.4969656031721161</v>
       </c>
       <c r="H15">
         <v>15.394</v>
@@ -1169,22 +1266,22 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>33.213123000000003</v>
+        <v>33.129955000000002</v>
       </c>
       <c r="C16">
-        <v>4.9906759999999997</v>
+        <v>4.9781785000000003</v>
       </c>
       <c r="D16">
         <v>1.68</v>
       </c>
       <c r="E16">
-        <v>470403186688</v>
+        <v>469225209856</v>
       </c>
       <c r="F16">
         <v>15.252000000000001</v>
       </c>
       <c r="G16">
-        <v>3.0108580876300008</v>
+        <v>3.018416414993621</v>
       </c>
       <c r="H16">
         <v>74.683000000000007</v>
@@ -1198,22 +1295,22 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>26.80733</v>
+        <v>26.717775</v>
       </c>
       <c r="C17">
-        <v>67.672550000000001</v>
+        <v>67.446479999999994</v>
       </c>
       <c r="D17">
         <v>2.29</v>
       </c>
       <c r="E17">
-        <v>392517484544</v>
+        <v>391206240256</v>
       </c>
       <c r="F17">
         <v>404.93299999999999</v>
       </c>
       <c r="G17">
-        <v>3.7303230123999671</v>
+        <v>3.742826638820036</v>
       </c>
       <c r="H17">
         <v>1095.3679999999999</v>
@@ -1227,22 +1324,22 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>40.525326</v>
+        <v>40.26435</v>
       </c>
       <c r="C18">
-        <v>66.29777</v>
+        <v>65.920609999999996</v>
       </c>
       <c r="D18">
         <v>0.57999999999999996</v>
       </c>
       <c r="E18">
-        <v>492095111168</v>
+        <v>489295675392</v>
       </c>
       <c r="F18">
         <v>177.57801000000001</v>
       </c>
       <c r="G18">
-        <v>2.467592734479175</v>
+        <v>2.4835865970765698</v>
       </c>
       <c r="H18">
         <v>244.839</v>
@@ -1256,22 +1353,22 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>35.413333999999999</v>
+        <v>35.626666999999998</v>
       </c>
       <c r="C19">
-        <v>1.6306483000000001</v>
+        <v>1.6404715000000001</v>
       </c>
       <c r="D19">
         <v>6.5299999999999994</v>
       </c>
       <c r="E19">
-        <v>150515253248</v>
+        <v>151421976576</v>
       </c>
       <c r="F19">
         <v>4.5379999999999994</v>
       </c>
       <c r="G19">
-        <v>2.823795127564098</v>
+        <v>2.8068862012828761</v>
       </c>
       <c r="H19">
         <v>73.408000000000001</v>
@@ -1285,22 +1382,22 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>15.80461</v>
+        <v>15.872527</v>
       </c>
       <c r="C20">
-        <v>1.6564847</v>
+        <v>1.6617770999999999</v>
       </c>
       <c r="D20">
         <v>4.5599999999999996</v>
       </c>
       <c r="E20">
-        <v>256704806912</v>
+        <v>257524957184</v>
       </c>
       <c r="F20">
         <v>10.3520006</v>
       </c>
       <c r="G20">
-        <v>6.3272678035079641</v>
+        <v>6.3001940396762279</v>
       </c>
       <c r="H20">
         <v>16.456</v>
@@ -1314,22 +1411,22 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>25.962654000000001</v>
+        <v>25.973027999999999</v>
       </c>
       <c r="C21">
-        <v>10.1690235</v>
+        <v>10.173087000000001</v>
       </c>
       <c r="D21">
         <v>3.1</v>
       </c>
       <c r="E21">
-        <v>269539049472</v>
+        <v>269646757888</v>
       </c>
       <c r="F21">
         <v>37.229999999999997</v>
       </c>
       <c r="G21">
-        <v>3.8516863491690789</v>
+        <v>3.8501479303837809</v>
       </c>
       <c r="H21">
         <v>167.358</v>
@@ -1343,22 +1440,22 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>41.378677000000003</v>
+        <v>40.886029999999998</v>
       </c>
       <c r="C22">
-        <v>2.0312586000000001</v>
+        <v>2.0070746000000002</v>
       </c>
       <c r="D22">
         <v>0.82000000000000006</v>
       </c>
       <c r="E22">
-        <v>203821301760</v>
+        <v>201394634752</v>
       </c>
       <c r="F22">
         <v>5.46</v>
       </c>
       <c r="G22">
-        <v>2.4167036563300459</v>
+        <v>2.4458231821480352</v>
       </c>
       <c r="H22">
         <v>45.188000000000002</v>
@@ -1372,22 +1469,22 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>22.483775999999999</v>
+        <v>22.614305000000002</v>
       </c>
       <c r="C23">
-        <v>10.759458</v>
+        <v>10.821922000000001</v>
       </c>
       <c r="D23">
         <v>3.55</v>
       </c>
       <c r="E23">
-        <v>209146167296</v>
+        <v>210360369152</v>
       </c>
       <c r="F23">
         <v>48.819000000000003</v>
       </c>
       <c r="G23">
-        <v>4.4476514976843751</v>
+        <v>4.4219798043760354</v>
       </c>
       <c r="H23">
         <v>229.60499999999999</v>
@@ -1401,22 +1498,22 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>16.141304000000002</v>
+        <v>16.076086</v>
       </c>
       <c r="C24">
-        <v>1.2595065000000001</v>
+        <v>1.2544175</v>
       </c>
       <c r="D24">
         <v>2.35</v>
       </c>
       <c r="E24">
-        <v>341826797568</v>
+        <v>340445691904</v>
       </c>
       <c r="F24">
         <v>8.0920000000000005</v>
       </c>
       <c r="G24">
-        <v>6.1952863287873141</v>
+        <v>6.2204195722764846</v>
       </c>
       <c r="H24" t="s">
         <v>10</v>
@@ -1430,22 +1527,22 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>25.74249</v>
+        <v>25.562232999999999</v>
       </c>
       <c r="C25">
-        <v>5.2855129999999999</v>
+        <v>5.2485023000000002</v>
       </c>
       <c r="D25">
         <v>2.73</v>
       </c>
       <c r="E25">
-        <v>238885945344</v>
+        <v>237213188096</v>
       </c>
       <c r="F25">
         <v>20.760999999999999</v>
       </c>
       <c r="G25">
-        <v>3.8846280993019708</v>
+        <v>3.9120213011124649</v>
       </c>
       <c r="H25">
         <v>70.647000000000006</v>
@@ -1459,22 +1556,22 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>52.181820000000002</v>
+        <v>51.058357000000001</v>
       </c>
       <c r="C26">
-        <v>17.386413999999998</v>
+        <v>16.954453000000001</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26">
-        <v>395031019520</v>
+        <v>385216577536</v>
       </c>
       <c r="F26">
         <v>34.713999999999999</v>
       </c>
       <c r="G26">
-        <v>1.9163762398475179</v>
+        <v>1.9585432410212491</v>
       </c>
       <c r="H26">
         <v>81.460999999999999</v>
@@ -1488,22 +1585,22 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>36.42071</v>
+        <v>35.912357</v>
       </c>
       <c r="C27">
-        <v>13.772678000000001</v>
+        <v>13.602416</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>198160433152</v>
+        <v>195710713856</v>
       </c>
       <c r="F27">
         <v>35.354999999999997</v>
       </c>
       <c r="G27">
-        <v>2.745690570008108</v>
+        <v>2.784556858799327</v>
       </c>
       <c r="H27">
         <v>41.787999999999997</v>
@@ -1517,22 +1614,22 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>10.309972999999999</v>
+        <v>10.229111</v>
       </c>
       <c r="C28">
-        <v>1.7098793000000001</v>
+        <v>1.6964684999999999</v>
       </c>
       <c r="D28">
         <v>3.24</v>
       </c>
       <c r="E28">
-        <v>146365153280</v>
+        <v>145217191936</v>
       </c>
       <c r="F28">
         <v>16.884</v>
       </c>
       <c r="G28">
-        <v>9.699346448336966</v>
+        <v>9.7760206141081074</v>
       </c>
       <c r="H28">
         <v>117.127</v>
@@ -1546,22 +1643,22 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>35.036472000000003</v>
+        <v>34.984802000000002</v>
       </c>
       <c r="C29">
-        <v>5.0239710000000004</v>
+        <v>5.0165620000000004</v>
       </c>
       <c r="D29">
         <v>2.0699999999999998</v>
       </c>
       <c r="E29">
-        <v>199931199488</v>
+        <v>199636353024</v>
       </c>
       <c r="F29">
         <v>14.840001000000001</v>
       </c>
       <c r="G29">
-        <v>2.8541686503138779</v>
+        <v>2.85838404916512</v>
       </c>
       <c r="H29">
         <v>37.588999999999999</v>
@@ -1578,13 +1675,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>0.88488679999999997</v>
+        <v>0.87536250000000004</v>
       </c>
       <c r="D30">
         <v>2.2400000000000002</v>
       </c>
       <c r="E30">
-        <v>88157724672</v>
+        <v>87208853504</v>
       </c>
       <c r="F30">
         <v>-15.597</v>
@@ -1604,22 +1701,22 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>21.086124000000002</v>
+        <v>20.744019999999999</v>
       </c>
       <c r="C31">
-        <v>4.3951330000000004</v>
+        <v>4.3238253999999996</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31">
-        <v>88363876352</v>
+        <v>86930243584</v>
       </c>
       <c r="F31">
         <v>22.187999999999999</v>
       </c>
       <c r="G31">
-        <v>4.7424552753270346</v>
+        <v>4.8206663896390376</v>
       </c>
       <c r="H31">
         <v>65.718000000000004</v>
@@ -1633,22 +1730,22 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>18.666665999999999</v>
+        <v>18.65447</v>
       </c>
       <c r="C32">
-        <v>1.609421</v>
+        <v>1.6083696000000001</v>
       </c>
       <c r="D32">
         <v>4.8800002999999998</v>
       </c>
       <c r="E32">
-        <v>164744642560</v>
+        <v>164637016064</v>
       </c>
       <c r="F32">
         <v>8.7590000000000003</v>
       </c>
       <c r="G32">
-        <v>5.3571430484693936</v>
+        <v>5.3606454645991013</v>
       </c>
       <c r="H32">
         <v>125.151</v>
@@ -1662,22 +1759,22 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>20.893305000000002</v>
+        <v>20.870293</v>
       </c>
       <c r="C33">
-        <v>5.6821804</v>
+        <v>5.6759219999999999</v>
       </c>
       <c r="D33">
         <v>3.3</v>
       </c>
       <c r="E33">
-        <v>252635152384</v>
+        <v>252356886528</v>
       </c>
       <c r="F33">
         <v>28.332000000000001</v>
       </c>
       <c r="G33">
-        <v>4.7862221893568293</v>
+        <v>4.7914995731013459</v>
       </c>
       <c r="H33">
         <v>85.572000000000003</v>
@@ -1691,22 +1788,22 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>41.873170000000002</v>
+        <v>41.185817999999998</v>
       </c>
       <c r="C34">
-        <v>54.346310000000003</v>
+        <v>53.323836999999997</v>
       </c>
       <c r="D34">
         <v>0.83</v>
       </c>
       <c r="E34">
-        <v>480182075392</v>
+        <v>471147905024</v>
       </c>
       <c r="F34">
         <v>155.578</v>
       </c>
       <c r="G34">
-        <v>2.3881640678267249</v>
+        <v>2.4280202471637198</v>
       </c>
       <c r="H34">
         <v>749.97799999999995</v>
@@ -1720,22 +1817,22 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>23.746914</v>
+        <v>23.58642</v>
       </c>
       <c r="C35">
-        <v>8.0137490000000007</v>
+        <v>7.9595875999999999</v>
       </c>
       <c r="D35">
         <v>2.08</v>
       </c>
       <c r="E35">
-        <v>114525192192</v>
+        <v>113751162880</v>
       </c>
       <c r="F35">
         <v>37.979999999999997</v>
       </c>
       <c r="G35">
-        <v>4.2110734893805573</v>
+        <v>4.2397277755589871</v>
       </c>
       <c r="H35">
         <v>86.962000000000003</v>
@@ -1749,22 +1846,22 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>85.299674999999993</v>
+        <v>84.550049999999999</v>
       </c>
       <c r="C36">
-        <v>50.182625000000002</v>
+        <v>49.634754000000001</v>
       </c>
       <c r="D36">
         <v>0.77999999999999992</v>
       </c>
       <c r="E36">
-        <v>714182819840</v>
+        <v>706385674240</v>
       </c>
       <c r="F36">
         <v>65.317999999999998</v>
       </c>
       <c r="G36">
-        <v>1.172337409257421</v>
+        <v>1.1827314117496091</v>
       </c>
       <c r="H36">
         <v>218.08099999999999</v>
@@ -1778,22 +1875,22 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>32.735080000000004</v>
+        <v>32.425654999999999</v>
       </c>
       <c r="C37">
-        <v>8.5056729999999998</v>
+        <v>8.4130109999999991</v>
       </c>
       <c r="D37">
         <v>2.99</v>
       </c>
       <c r="E37">
-        <v>207943417856</v>
+        <v>205678034944</v>
       </c>
       <c r="F37">
         <v>26.728999999999999</v>
       </c>
       <c r="G37">
-        <v>3.054826809648854</v>
+        <v>3.083977794743082</v>
       </c>
       <c r="H37">
         <v>245.11199999999999</v>
@@ -1807,22 +1904,22 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>56.38944</v>
+        <v>55.498356000000001</v>
       </c>
       <c r="C38">
-        <v>5.5630264</v>
+        <v>5.4931869999999998</v>
       </c>
       <c r="D38">
         <v>0.47999997999999999</v>
       </c>
       <c r="E38">
-        <v>327026049024</v>
+        <v>322920513536</v>
       </c>
       <c r="F38">
         <v>9.734</v>
       </c>
       <c r="G38">
-        <v>1.773381682811533</v>
+        <v>1.8018551756740331</v>
       </c>
       <c r="H38">
         <v>21.148</v>
@@ -1836,22 +1933,22 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>30.212069</v>
+        <v>29.886838999999998</v>
       </c>
       <c r="C39">
-        <v>7.9667120000000002</v>
+        <v>7.8809509999999996</v>
       </c>
       <c r="D39">
         <v>1.7</v>
       </c>
       <c r="E39">
-        <v>225441759232</v>
+        <v>223014879232</v>
       </c>
       <c r="F39">
         <v>26.674997999999999</v>
       </c>
       <c r="G39">
-        <v>3.3099355095475249</v>
+        <v>3.3459543848046289</v>
       </c>
       <c r="H39">
         <v>14.127000000000001</v>
@@ -1865,22 +1962,22 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>24.954128000000001</v>
+        <v>24.724769999999999</v>
       </c>
       <c r="C40">
-        <v>2.1309933999999999</v>
+        <v>2.1114069999999998</v>
       </c>
       <c r="D40">
         <v>3.2</v>
       </c>
       <c r="E40">
-        <v>104634867712</v>
+        <v>103673151488</v>
       </c>
       <c r="F40">
         <v>7.9480000000000004</v>
       </c>
       <c r="G40">
-        <v>4.0073530118944651</v>
+        <v>4.0445270067224088</v>
       </c>
       <c r="H40">
         <v>57.859000000000002</v>
@@ -1894,22 +1991,22 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>43.555557</v>
+        <v>43.735847</v>
       </c>
       <c r="C41">
-        <v>3.2559974</v>
+        <v>3.2633179999999999</v>
       </c>
       <c r="D41">
         <v>0.47</v>
       </c>
       <c r="E41">
-        <v>167047757824</v>
+        <v>167423344640</v>
       </c>
       <c r="F41">
         <v>7.5859999999999994</v>
       </c>
       <c r="G41">
-        <v>2.295918291206791</v>
+        <v>2.2864539470334249</v>
       </c>
       <c r="H41">
         <v>36.69</v>
@@ -1926,13 +2023,13 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>6.8614693000000004</v>
+        <v>6.8419495000000001</v>
       </c>
       <c r="D42">
         <v>4.33</v>
       </c>
       <c r="E42">
-        <v>117634441216</v>
+        <v>117299789824</v>
       </c>
       <c r="F42">
         <v>-31.33</v>
@@ -1952,22 +2049,22 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>17.298701999999999</v>
+        <v>17.242425999999998</v>
       </c>
       <c r="C43">
-        <v>1.7463508000000001</v>
+        <v>1.7406695999999999</v>
       </c>
       <c r="D43">
         <v>6.79</v>
       </c>
       <c r="E43">
-        <v>168216805376</v>
+        <v>167669563392</v>
       </c>
       <c r="F43">
         <v>10.430999999999999</v>
       </c>
       <c r="G43">
-        <v>5.780780546424813</v>
+        <v>5.7996479149743783</v>
       </c>
       <c r="H43">
         <v>182.61500000000001</v>
@@ -1981,7 +2078,7 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>25.905096</v>
+        <v>25.925305999999999</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -1990,13 +2087,13 @@
         <v>2.42</v>
       </c>
       <c r="E44">
-        <v>211259572224</v>
+        <v>211424411648</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
       </c>
       <c r="G44">
-        <v>3.860244331848838</v>
+        <v>3.857235089144174</v>
       </c>
       <c r="H44" t="s">
         <v>10</v>
@@ -2010,22 +2107,22 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>62.657344999999999</v>
+        <v>62.247387000000003</v>
       </c>
       <c r="C45">
-        <v>52.505122999999998</v>
+        <v>52.343975</v>
       </c>
       <c r="D45">
         <v>3.74</v>
       </c>
       <c r="E45">
-        <v>316671492096</v>
+        <v>315699560448</v>
       </c>
       <c r="F45">
         <v>56.406999999999996</v>
       </c>
       <c r="G45">
-        <v>1.5959820831859379</v>
+        <v>1.606493136812313</v>
       </c>
       <c r="H45">
         <v>1174.8150000000001</v>
@@ -2039,22 +2136,22 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>21.474779999999999</v>
+        <v>21.439169</v>
       </c>
       <c r="C46">
-        <v>2.9734172999999999</v>
+        <v>2.9684868</v>
       </c>
       <c r="D46">
         <v>2.87</v>
       </c>
       <c r="E46">
-        <v>148821671936</v>
+        <v>148574896128</v>
       </c>
       <c r="F46">
         <v>9.8879990000000006</v>
       </c>
       <c r="G46">
-        <v>4.6566251202573437</v>
+        <v>4.6643598919342439</v>
       </c>
       <c r="H46">
         <v>139.01499999999999</v>
@@ -2068,22 +2165,22 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>56.012889999999999</v>
+        <v>55.003520000000002</v>
       </c>
       <c r="C47">
-        <v>17.936146000000001</v>
+        <v>17.561342</v>
       </c>
       <c r="D47">
         <v>0.47</v>
       </c>
       <c r="E47">
-        <v>424429617152</v>
+        <v>415560499200</v>
       </c>
       <c r="F47">
         <v>30.266999999999999</v>
       </c>
       <c r="G47">
-        <v>1.7853033471402739</v>
+        <v>1.8180654619922509</v>
       </c>
       <c r="H47">
         <v>42.118000000000002</v>
@@ -2097,22 +2194,22 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>35.571429999999999</v>
+        <v>35.421149999999997</v>
       </c>
       <c r="C48">
-        <v>10.126227</v>
+        <v>10.083447</v>
       </c>
       <c r="D48">
         <v>2.91</v>
       </c>
       <c r="E48">
-        <v>174899363840</v>
+        <v>174160478208</v>
       </c>
       <c r="F48">
         <v>29.292999999999999</v>
       </c>
       <c r="G48">
-        <v>2.8112448670182779</v>
+        <v>2.82317203139932</v>
       </c>
       <c r="H48">
         <v>84.399000000000001</v>
@@ -2126,7 +2223,7 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>19.288430999999999</v>
+        <v>19.287302</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2135,13 +2232,13 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="E49">
-        <v>189238345728</v>
+        <v>188927393792</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
       </c>
       <c r="G49">
-        <v>5.1844548683094027</v>
+        <v>5.1847583451537176</v>
       </c>
       <c r="H49" t="s">
         <v>10</v>
@@ -2155,22 +2252,22 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>21.141413</v>
+        <v>21.174012999999999</v>
       </c>
       <c r="C50">
-        <v>8.4256170000000008</v>
+        <v>8.4386089999999996</v>
       </c>
       <c r="D50">
         <v>2.3699998999999998</v>
       </c>
       <c r="E50">
-        <v>139578556416</v>
+        <v>139793776640</v>
       </c>
       <c r="F50">
         <v>43.396000000000001</v>
       </c>
       <c r="G50">
-        <v>4.7300528115126461</v>
+        <v>4.7227703128358334</v>
       </c>
       <c r="H50">
         <v>197.154</v>
@@ -2184,22 +2281,22 @@
         <v>61</v>
       </c>
       <c r="B51">
-        <v>19.087613999999999</v>
+        <v>19.05302</v>
       </c>
       <c r="C51">
-        <v>6.3940900000000003</v>
+        <v>6.3825019999999997</v>
       </c>
       <c r="D51">
         <v>5.19</v>
       </c>
       <c r="E51">
-        <v>107831828480</v>
+        <v>107636408320</v>
       </c>
       <c r="F51">
         <v>31.422000000000001</v>
       </c>
       <c r="G51">
-        <v>5.2389994894071101</v>
+        <v>5.2485117844835099</v>
       </c>
       <c r="H51">
         <v>155.42500000000001</v>
@@ -2213,7 +2310,7 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>20.768526000000001</v>
+        <v>20.722961000000002</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2222,13 +2319,13 @@
         <v>1.6900001</v>
       </c>
       <c r="E52">
-        <v>140840648704</v>
+        <v>140648660992</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
       </c>
       <c r="G52">
-        <v>4.8149782030751718</v>
+        <v>4.8255652268997657</v>
       </c>
       <c r="H52" t="s">
         <v>10</v>
@@ -2242,22 +2339,22 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>26.804625999999999</v>
+        <v>26.550173000000001</v>
       </c>
       <c r="C53">
-        <v>8.661835</v>
+        <v>8.5994469999999996</v>
       </c>
       <c r="D53">
         <v>1.98</v>
       </c>
       <c r="E53">
-        <v>150766256128</v>
+        <v>149680357376</v>
       </c>
       <c r="F53">
         <v>31.864999999999998</v>
       </c>
       <c r="G53">
-        <v>3.730699320333736</v>
+        <v>3.766453800508192</v>
       </c>
       <c r="H53">
         <v>177.821</v>
@@ -2271,22 +2368,22 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>33.729106999999999</v>
+        <v>33.771675000000002</v>
       </c>
       <c r="C54">
-        <v>2.549058</v>
+        <v>2.5449199999999998</v>
       </c>
       <c r="D54">
         <v>2.16</v>
       </c>
       <c r="E54">
-        <v>155782578176</v>
+        <v>155529691136</v>
       </c>
       <c r="F54">
         <v>7.3460004999999997</v>
       </c>
       <c r="G54">
-        <v>2.9647983268575708</v>
+        <v>2.9610613035924329</v>
       </c>
       <c r="H54">
         <v>69.596999999999994</v>
@@ -2300,7 +2397,7 @@
         <v>65</v>
       </c>
       <c r="B55">
-        <v>27.752265999999999</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2309,13 +2406,13 @@
         <v>2.77</v>
       </c>
       <c r="E55">
-        <v>104150859776</v>
+        <v>105080578048</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55">
-        <v>3.603309365800976</v>
+        <v>3.5714285714285721</v>
       </c>
       <c r="H55" t="s">
         <v>10</v>
@@ -2329,22 +2426,22 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>44.631298000000001</v>
+        <v>44.432358000000001</v>
       </c>
       <c r="C56">
-        <v>4.6079273000000001</v>
+        <v>4.5873879999999998</v>
       </c>
       <c r="D56">
         <v>0.74</v>
       </c>
       <c r="E56">
-        <v>156633235456</v>
+        <v>155935064064</v>
       </c>
       <c r="F56">
         <v>9.9309995999999998</v>
       </c>
       <c r="G56">
-        <v>2.2405801417650899</v>
+        <v>2.2506120426919498</v>
       </c>
       <c r="H56">
         <v>31.361999999999998</v>
@@ -2358,22 +2455,22 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>19.457446999999998</v>
+        <v>19.227962000000002</v>
       </c>
       <c r="C57">
-        <v>2.1980908000000001</v>
+        <v>2.1721663000000002</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57">
-        <v>206261452800</v>
+        <v>203828772864</v>
       </c>
       <c r="F57">
         <v>11.079001</v>
       </c>
       <c r="G57">
-        <v>5.1394203977531072</v>
+        <v>5.2007591860229381</v>
       </c>
       <c r="H57">
         <v>405.77199999999999</v>
@@ -2387,22 +2484,22 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>62.981479999999998</v>
+        <v>61.757539999999999</v>
       </c>
       <c r="C58">
-        <v>9.8235030000000005</v>
+        <v>9.6419890000000006</v>
       </c>
       <c r="D58">
         <v>0.61000003000000003</v>
       </c>
       <c r="E58">
-        <v>180879556608</v>
+        <v>177537351680</v>
       </c>
       <c r="F58">
         <v>16.597000000000001</v>
       </c>
       <c r="G58">
-        <v>1.5877683407884351</v>
+        <v>1.6192354812060199</v>
       </c>
       <c r="H58" t="s">
         <v>10</v>
@@ -2416,22 +2513,22 @@
         <v>69</v>
       </c>
       <c r="B59">
-        <v>17.732662000000001</v>
+        <v>17.538029999999999</v>
       </c>
       <c r="C59">
-        <v>6.7156653000000004</v>
+        <v>6.6419550000000003</v>
       </c>
       <c r="D59">
         <v>2.2200000000000002</v>
       </c>
       <c r="E59">
-        <v>176126836736</v>
+        <v>174193688576</v>
       </c>
       <c r="F59">
         <v>42.253</v>
       </c>
       <c r="G59">
-        <v>5.6393112325718491</v>
+        <v>5.7018946825840757</v>
       </c>
       <c r="H59">
         <v>58.765000000000001</v>
@@ -2445,22 +2542,22 @@
         <v>70</v>
       </c>
       <c r="B60">
-        <v>17.043638000000001</v>
+        <v>16.907194</v>
       </c>
       <c r="C60">
-        <v>9.1377939999999995</v>
+        <v>9.0688479999999991</v>
       </c>
       <c r="D60">
         <v>1.54</v>
       </c>
       <c r="E60">
-        <v>177246257152</v>
+        <v>175908913152</v>
       </c>
       <c r="F60">
         <v>53.474999999999987</v>
       </c>
       <c r="G60">
-        <v>5.8672919478810801</v>
+        <v>5.9146420157005357</v>
       </c>
       <c r="H60">
         <v>195.33600000000001</v>
@@ -2474,22 +2571,22 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>22.352205000000001</v>
+        <v>22.148035</v>
       </c>
       <c r="C61">
-        <v>7.2040667999999997</v>
+        <v>7.1330140000000002</v>
       </c>
       <c r="D61">
         <v>0.94000000000000006</v>
       </c>
       <c r="E61">
-        <v>214144221184</v>
+        <v>212032159744</v>
       </c>
       <c r="F61">
         <v>34.69</v>
       </c>
       <c r="G61">
-        <v>4.4738315526365291</v>
+        <v>4.5150732333590771</v>
       </c>
       <c r="H61">
         <v>186.815</v>
@@ -2503,22 +2600,22 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>33.611747999999999</v>
+        <v>33.497447999999999</v>
       </c>
       <c r="C62">
-        <v>18.793201</v>
+        <v>18.753214</v>
       </c>
       <c r="D62">
         <v>3.61</v>
       </c>
       <c r="E62">
-        <v>141467926528</v>
+        <v>141166919680</v>
       </c>
       <c r="F62">
         <v>55.720000000000013</v>
       </c>
       <c r="G62">
-        <v>2.975150236161475</v>
+        <v>2.9853020445020171</v>
       </c>
       <c r="H62">
         <v>802.41800000000001</v>
@@ -2532,22 +2629,22 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>32.145454000000001</v>
+        <v>32.152653000000001</v>
       </c>
       <c r="C63">
-        <v>5.1577143999999997</v>
+        <v>5.1588693000000001</v>
       </c>
       <c r="D63">
         <v>1.3099999</v>
       </c>
       <c r="E63">
-        <v>202043375616</v>
+        <v>202088611840</v>
       </c>
       <c r="F63">
         <v>16.190000000000001</v>
       </c>
       <c r="G63">
-        <v>3.11085978129287</v>
+        <v>3.1101632577566769</v>
       </c>
       <c r="H63">
         <v>54.828000000000003</v>
@@ -2561,22 +2658,22 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>31.112781999999999</v>
+        <v>31.013182</v>
       </c>
       <c r="C64">
-        <v>14.2800455</v>
+        <v>14.207575</v>
       </c>
       <c r="D64">
         <v>1.21</v>
       </c>
       <c r="E64">
-        <v>74676830208</v>
+        <v>74297843712</v>
       </c>
       <c r="F64">
         <v>47.302999999999997</v>
       </c>
       <c r="G64">
-        <v>3.2141130934546451</v>
+        <v>3.22443533849574</v>
       </c>
       <c r="H64">
         <v>129.44200000000001</v>
@@ -2590,22 +2687,22 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>26.025179999999999</v>
+        <v>25.879321999999998</v>
       </c>
       <c r="C65">
-        <v>3.7880549999999999</v>
+        <v>3.7640351999999999</v>
       </c>
       <c r="D65">
         <v>1.98</v>
       </c>
       <c r="E65">
-        <v>163285843968</v>
+        <v>162250473472</v>
       </c>
       <c r="F65">
         <v>15.05</v>
       </c>
       <c r="G65">
-        <v>3.8424325979685832</v>
+        <v>3.8640888660066142</v>
       </c>
       <c r="H65">
         <v>32.503</v>
@@ -2619,22 +2716,22 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>32.989986000000002</v>
+        <v>32.947400000000002</v>
       </c>
       <c r="C66">
-        <v>4.1158929999999998</v>
+        <v>4.1080069999999997</v>
       </c>
       <c r="D66">
         <v>0.3</v>
       </c>
       <c r="E66">
-        <v>201646342144</v>
+        <v>201260023808</v>
       </c>
       <c r="F66">
         <v>12.944001</v>
       </c>
       <c r="G66">
-        <v>3.0312228686608109</v>
+        <v>3.035140860887354</v>
       </c>
       <c r="H66">
         <v>72.328999999999994</v>
@@ -2648,22 +2745,22 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>1049</v>
+        <v>1045.6666</v>
       </c>
       <c r="C67">
-        <v>6.3674382999999999</v>
+        <v>6.3472046999999998</v>
       </c>
       <c r="D67">
         <v>3.3299997000000001</v>
       </c>
       <c r="E67">
-        <v>117660352512</v>
+        <v>117286469632</v>
       </c>
       <c r="F67">
         <v>0.56100000000000005</v>
       </c>
       <c r="G67">
-        <v>9.532888465204957E-2</v>
+        <v>9.5632776259660587E-2</v>
       </c>
       <c r="H67">
         <v>126.41500000000001</v>
@@ -2677,22 +2774,22 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>11.401014</v>
+        <v>11.303477000000001</v>
       </c>
       <c r="C68">
-        <v>0.75402015</v>
+        <v>0.74756944000000003</v>
       </c>
       <c r="D68">
         <v>6</v>
       </c>
       <c r="E68">
-        <v>56527773696</v>
+        <v>56044171264</v>
       </c>
       <c r="F68">
         <v>6.6970000000000001</v>
       </c>
       <c r="G68">
-        <v>8.7711496538816629</v>
+        <v>8.8468353587130757</v>
       </c>
       <c r="H68">
         <v>110.116</v>
@@ -2715,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="E69">
-        <v>134955991040</v>
+        <v>135403773952</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2735,22 +2832,22 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>16.933644999999999</v>
+        <v>16.776522</v>
       </c>
       <c r="C70">
-        <v>5.1469310000000004</v>
+        <v>5.1031547000000002</v>
       </c>
       <c r="D70">
         <v>1.4500000500000001</v>
       </c>
       <c r="E70">
-        <v>117820096512</v>
+        <v>116817985536</v>
       </c>
       <c r="F70">
         <v>35.481000000000002</v>
       </c>
       <c r="G70">
-        <v>5.905403119056766</v>
+        <v>5.9607110460678321</v>
       </c>
       <c r="H70">
         <v>288.04300000000001</v>
@@ -2764,22 +2861,22 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>32.293053</v>
+        <v>31.990908000000001</v>
       </c>
       <c r="C71">
-        <v>1.8675634999999999</v>
+        <v>1.8500899</v>
       </c>
       <c r="D71">
         <v>3.72</v>
       </c>
       <c r="E71">
-        <v>98998845440</v>
+        <v>98072576000</v>
       </c>
       <c r="F71">
         <v>5.6619999999999999</v>
       </c>
       <c r="G71">
-        <v>3.0966412497449531</v>
+        <v>3.1258881429686212</v>
       </c>
       <c r="H71">
         <v>57.079000000000001</v>
@@ -2793,22 +2890,22 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>171.46802</v>
+        <v>167.98743999999999</v>
       </c>
       <c r="C72">
-        <v>24.409479999999999</v>
+        <v>23.764769000000001</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
       <c r="E72">
-        <v>226765062144</v>
+        <v>220775677952</v>
       </c>
       <c r="F72">
         <v>16.221</v>
       </c>
       <c r="G72">
-        <v>0.58319912949365138</v>
+        <v>0.59528259969912034</v>
       </c>
       <c r="H72">
         <v>24.166</v>
@@ -2822,22 +2919,22 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>13.650364</v>
+        <v>13.523910000000001</v>
       </c>
       <c r="C73">
-        <v>15.389487000000001</v>
+        <v>15.262788</v>
       </c>
       <c r="D73">
         <v>2.17</v>
       </c>
       <c r="E73">
-        <v>71435239424</v>
+        <v>70847127552</v>
       </c>
       <c r="F73">
         <v>113.29398999999999</v>
       </c>
       <c r="G73">
-        <v>7.325811971021432</v>
+        <v>7.3943112605747894</v>
       </c>
       <c r="H73">
         <v>295.44099999999997</v>
@@ -2851,22 +2948,22 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>31.721453</v>
+        <v>31.714735000000001</v>
       </c>
       <c r="C74">
-        <v>22.656452000000002</v>
+        <v>22.627479999999998</v>
       </c>
       <c r="D74">
         <v>2.1</v>
       </c>
       <c r="E74">
-        <v>121108447232</v>
+        <v>120953569280</v>
       </c>
       <c r="F74">
         <v>87.263000000000005</v>
       </c>
       <c r="G74">
-        <v>3.152440715751577</v>
+        <v>3.1531084841162951</v>
       </c>
       <c r="H74">
         <v>176.65</v>
@@ -2880,22 +2977,22 @@
         <v>85</v>
       </c>
       <c r="B75">
-        <v>20.327635000000001</v>
+        <v>20.235043000000001</v>
       </c>
       <c r="C75">
-        <v>0.70014816999999996</v>
+        <v>0.696959</v>
       </c>
       <c r="D75">
         <v>3.15</v>
       </c>
       <c r="E75">
-        <v>134941401088</v>
+        <v>134326747136</v>
       </c>
       <c r="F75">
         <v>3.8740000000000001</v>
       </c>
       <c r="G75">
-        <v>4.9194114317774789</v>
+        <v>4.9419217937910984</v>
       </c>
       <c r="H75" t="s">
         <v>10</v>
@@ -2909,7 +3006,7 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>34.421073999999997</v>
+        <v>34.12274</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -2918,13 +3015,13 @@
         <v>0.69</v>
       </c>
       <c r="E76">
-        <v>168662106112</v>
+        <v>166906658816</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
       <c r="G76">
-        <v>2.9051969732263441</v>
+        <v>2.9305970153627761</v>
       </c>
       <c r="H76" t="s">
         <v>10</v>
@@ -2938,22 +3035,22 @@
         <v>87</v>
       </c>
       <c r="B77">
-        <v>86.489570000000001</v>
+        <v>85.858069999999998</v>
       </c>
       <c r="C77">
-        <v>12.316395999999999</v>
+        <v>12.167592000000001</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77">
-        <v>191919947776</v>
+        <v>189601218560</v>
       </c>
       <c r="F77">
         <v>15.973000000000001</v>
       </c>
       <c r="G77">
-        <v>1.156208777543928</v>
+        <v>1.1647128802219759</v>
       </c>
       <c r="H77" t="s">
         <v>10</v>
@@ -2967,22 +3064,22 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>17.722057</v>
+        <v>17.711752000000001</v>
       </c>
       <c r="C78">
-        <v>2.6344655000000001</v>
+        <v>2.6316313999999998</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>78755962880</v>
+        <v>78671241216</v>
       </c>
       <c r="F78">
         <v>17.166</v>
       </c>
       <c r="G78">
-        <v>5.6426858349456843</v>
+        <v>5.6459688459955846</v>
       </c>
       <c r="H78">
         <v>9.2210000000000001</v>
@@ -2996,22 +3093,22 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>133.92857000000001</v>
+        <v>132.48214999999999</v>
       </c>
       <c r="C79">
-        <v>5.2958619999999996</v>
+        <v>5.2386670000000004</v>
       </c>
       <c r="D79">
         <v>1.88</v>
       </c>
       <c r="E79">
-        <v>26923347968</v>
+        <v>26632577024</v>
       </c>
       <c r="F79">
         <v>3.8570000000000002</v>
       </c>
       <c r="G79">
-        <v>0.74666667463111114</v>
+        <v>0.75481866802433395</v>
       </c>
       <c r="H79">
         <v>196.892</v>
@@ -3028,13 +3125,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>6.7712626</v>
+        <v>6.7138809999999998</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
       <c r="E80">
-        <v>105754279936</v>
+        <v>104858083328</v>
       </c>
       <c r="F80">
         <v>-2.9849999</v>
@@ -3054,7 +3151,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>8.885135</v>
+        <v>8.8597975000000009</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -3063,13 +3160,13 @@
         <v>7.580000000000001</v>
       </c>
       <c r="E81">
-        <v>89146998784</v>
+        <v>88892784640</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
       <c r="G81">
-        <v>11.25475302288598</v>
+        <v>11.286939684569541</v>
       </c>
       <c r="H81" t="s">
         <v>10</v>
@@ -3083,22 +3180,22 @@
         <v>92</v>
       </c>
       <c r="B82">
-        <v>23.944984000000002</v>
+        <v>23.655339999999999</v>
       </c>
       <c r="C82">
-        <v>11.284122999999999</v>
+        <v>11.147629</v>
       </c>
       <c r="D82">
         <v>1.28</v>
       </c>
       <c r="E82">
-        <v>95202197504</v>
+        <v>94050607104</v>
       </c>
       <c r="F82">
         <v>49.116</v>
       </c>
       <c r="G82">
-        <v>4.1762400008285656</v>
+        <v>4.2273752987697497</v>
       </c>
       <c r="H82">
         <v>58.826999999999998</v>
@@ -3112,22 +3209,22 @@
         <v>93</v>
       </c>
       <c r="B83">
-        <v>11.443182</v>
+        <v>11.431819000000001</v>
       </c>
       <c r="C83">
-        <v>0.90313900000000003</v>
+        <v>0.90224223999999997</v>
       </c>
       <c r="D83">
         <v>6.0700003000000002</v>
       </c>
       <c r="E83">
-        <v>40021098496</v>
+        <v>39981359104</v>
       </c>
       <c r="F83">
         <v>7.99</v>
       </c>
       <c r="G83">
-        <v>8.7388280637326226</v>
+        <v>8.7475142844721372</v>
       </c>
       <c r="H83">
         <v>359.35899999999998</v>
@@ -3141,22 +3238,22 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>5.7822839999999998</v>
+        <v>5.7876200000000004</v>
       </c>
       <c r="C84">
-        <v>0.84018236000000002</v>
+        <v>0.84095770000000003</v>
       </c>
       <c r="D84">
         <v>0.92999999999999994</v>
       </c>
       <c r="E84">
-        <v>59576328192</v>
+        <v>59631308800</v>
       </c>
       <c r="F84">
         <v>14.167</v>
       </c>
       <c r="G84">
-        <v>17.294204158771858</v>
+        <v>17.278259457255309</v>
       </c>
       <c r="H84">
         <v>174.58099999999999</v>
@@ -3199,22 +3296,22 @@
         <v>96</v>
       </c>
       <c r="B86">
-        <v>53.602159999999998</v>
+        <v>52.568497000000001</v>
       </c>
       <c r="C86">
-        <v>9.8794509999999995</v>
+        <v>9.7098849999999999</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
       <c r="E86">
-        <v>76642861056</v>
+        <v>75327406080</v>
       </c>
       <c r="F86">
         <v>21.818999999999999</v>
       </c>
       <c r="G86">
-        <v>1.865596461038137</v>
+        <v>1.9022799909991721</v>
       </c>
       <c r="H86">
         <v>8.6999999999999993</v>
@@ -3228,22 +3325,22 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>66.685010000000005</v>
+        <v>66.198779999999999</v>
       </c>
       <c r="C87">
-        <v>3.0765975000000001</v>
+        <v>3.0541643999999999</v>
       </c>
       <c r="D87">
         <v>1.65</v>
       </c>
       <c r="E87">
-        <v>108222521344</v>
+        <v>107433410560</v>
       </c>
       <c r="F87">
         <v>4.6580000000000004</v>
       </c>
       <c r="G87">
-        <v>1.4995873885300459</v>
+        <v>1.510601857013075</v>
       </c>
       <c r="H87">
         <v>23.07</v>
@@ -3257,22 +3354,22 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>39.552464000000001</v>
+        <v>39.241709999999998</v>
       </c>
       <c r="C88">
-        <v>6.9893106999999999</v>
+        <v>6.9418220000000002</v>
       </c>
       <c r="D88">
         <v>0.91999999999999993</v>
       </c>
       <c r="E88">
-        <v>140828819456</v>
+        <v>139871961088</v>
       </c>
       <c r="F88">
         <v>18.867999999999999</v>
       </c>
       <c r="G88">
-        <v>2.5282874917729519</v>
+        <v>2.5483089294528711</v>
       </c>
       <c r="H88">
         <v>79.442999999999998</v>
@@ -3286,22 +3383,22 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>29.312742</v>
+        <v>29.262550000000001</v>
       </c>
       <c r="C89">
-        <v>4.6910530000000001</v>
+        <v>4.68302</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89">
-        <v>44777615360</v>
+        <v>44700942336</v>
       </c>
       <c r="F89">
         <v>19.138999999999999</v>
       </c>
       <c r="G89">
-        <v>3.4114856945146932</v>
+        <v>3.417337176698545</v>
       </c>
       <c r="H89">
         <v>7.3529999999999998</v>
@@ -3315,22 +3412,22 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>36.225772999999997</v>
+        <v>35.608623999999999</v>
       </c>
       <c r="C90">
-        <v>7.0320220000000004</v>
+        <v>6.9122233</v>
       </c>
       <c r="D90">
         <v>1.1100000000000001</v>
       </c>
       <c r="E90">
-        <v>134431236096</v>
+        <v>132141047808</v>
       </c>
       <c r="F90">
         <v>20.079000000000001</v>
       </c>
       <c r="G90">
-        <v>2.760465594481587</v>
+        <v>2.8083084592092069</v>
       </c>
       <c r="H90">
         <v>52.594000000000001</v>
@@ -3344,22 +3441,22 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>17.660855999999999</v>
+        <v>17.545784000000001</v>
       </c>
       <c r="C91">
-        <v>5.2453465000000001</v>
+        <v>5.2073850000000004</v>
       </c>
       <c r="D91">
         <v>0.17</v>
       </c>
       <c r="E91">
-        <v>142463385600</v>
+        <v>141432340480</v>
       </c>
       <c r="F91">
         <v>36.411000000000001</v>
       </c>
       <c r="G91">
-        <v>5.6622397011786978</v>
+        <v>5.6993748469717849</v>
       </c>
       <c r="H91">
         <v>25.375</v>
@@ -3376,13 +3473,13 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>0.80072796000000002</v>
+        <v>0.79584750000000004</v>
       </c>
       <c r="D92">
         <v>10.47</v>
       </c>
       <c r="E92">
-        <v>8358564352</v>
+        <v>8307618304</v>
       </c>
       <c r="F92">
         <v>-75.969004999999996</v>
@@ -3402,22 +3499,22 @@
         <v>103</v>
       </c>
       <c r="B93">
-        <v>26.543104</v>
+        <v>26.505747</v>
       </c>
       <c r="C93">
-        <v>173.62782000000001</v>
+        <v>173.38345000000001</v>
       </c>
       <c r="D93">
         <v>2.17</v>
       </c>
       <c r="E93">
-        <v>75467309056</v>
+        <v>75361091584</v>
       </c>
       <c r="F93">
         <v>487.923</v>
       </c>
       <c r="G93">
-        <v>3.7674568882373372</v>
+        <v>3.7727667135734748</v>
       </c>
       <c r="H93">
         <v>1009.091</v>
@@ -3431,22 +3528,22 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>75.578509999999994</v>
+        <v>75.008260000000007</v>
       </c>
       <c r="C94">
-        <v>6.5070442999999996</v>
+        <v>6.457948</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
       </c>
       <c r="E94">
-        <v>134781747200</v>
+        <v>133764816896</v>
       </c>
       <c r="F94">
         <v>8.9160000000000004</v>
       </c>
       <c r="G94">
-        <v>1.3231274339756101</v>
+        <v>1.3331865050595759</v>
       </c>
       <c r="H94">
         <v>53.722000000000001</v>
@@ -3460,22 +3557,22 @@
         <v>105</v>
       </c>
       <c r="B95">
-        <v>12.480198</v>
+        <v>12.588184999999999</v>
       </c>
       <c r="C95">
-        <v>2.4615133</v>
+        <v>2.482812</v>
       </c>
       <c r="D95">
         <v>2.97</v>
       </c>
       <c r="E95">
-        <v>16633003008</v>
+        <v>16776923136</v>
       </c>
       <c r="F95">
         <v>20.882000000000001</v>
       </c>
       <c r="G95">
-        <v>8.0126933883581017</v>
+        <v>7.9439569723514554</v>
       </c>
       <c r="H95">
         <v>250.87299999999999</v>
@@ -3489,22 +3586,22 @@
         <v>106</v>
       </c>
       <c r="B96">
-        <v>22.370308000000001</v>
+        <v>22.214113000000001</v>
       </c>
       <c r="C96">
-        <v>1.755887</v>
+        <v>1.7436271000000001</v>
       </c>
       <c r="D96">
         <v>1.43</v>
       </c>
       <c r="E96">
-        <v>30842075136</v>
+        <v>30626729984</v>
       </c>
       <c r="F96">
         <v>7.837999599999999</v>
       </c>
       <c r="G96">
-        <v>4.4702111388005923</v>
+        <v>4.5016427169520563</v>
       </c>
       <c r="H96">
         <v>75.908000000000001</v>
@@ -3518,22 +3615,22 @@
         <v>107</v>
       </c>
       <c r="B97">
-        <v>14.463414</v>
+        <v>14.444799</v>
       </c>
       <c r="C97">
-        <v>4.6879080000000002</v>
+        <v>4.6769094000000004</v>
       </c>
       <c r="D97">
         <v>2.87</v>
       </c>
       <c r="E97">
-        <v>62495535104</v>
+        <v>62348910592</v>
       </c>
       <c r="F97">
         <v>33.968000000000004</v>
       </c>
       <c r="G97">
-        <v>6.9139969304619227</v>
+        <v>6.9229069923368263</v>
       </c>
       <c r="H97">
         <v>132.80199999999999</v>
@@ -3547,22 +3644,22 @@
         <v>108</v>
       </c>
       <c r="B98">
-        <v>17.125941999999998</v>
+        <v>17.036566000000001</v>
       </c>
       <c r="C98">
-        <v>3.8555411999999998</v>
+        <v>3.8354200000000001</v>
       </c>
       <c r="D98">
         <v>2.4</v>
       </c>
       <c r="E98">
-        <v>65619595264</v>
+        <v>65277136896</v>
       </c>
       <c r="F98">
         <v>22.58</v>
       </c>
       <c r="G98">
-        <v>5.8390948655554249</v>
+        <v>5.8697275025964739</v>
       </c>
       <c r="H98">
         <v>79.822000000000003</v>
@@ -3576,22 +3673,22 @@
         <v>109</v>
       </c>
       <c r="B99">
-        <v>26.664770000000001</v>
+        <v>26.460228000000001</v>
       </c>
       <c r="C99">
-        <v>1.8696216000000001</v>
+        <v>1.85528</v>
       </c>
       <c r="D99">
         <v>2.02</v>
       </c>
       <c r="E99">
-        <v>78322319360</v>
+        <v>77721509888</v>
       </c>
       <c r="F99">
         <v>7.6059999999999999</v>
       </c>
       <c r="G99">
-        <v>3.75026673772172</v>
+        <v>3.7792569285495201</v>
       </c>
       <c r="H99">
         <v>80.150000000000006</v>
@@ -3605,22 +3702,22 @@
         <v>110</v>
       </c>
       <c r="B100">
-        <v>20.349352</v>
+        <v>20.271896000000002</v>
       </c>
       <c r="C100">
-        <v>3.1880213999999998</v>
+        <v>3.1807319999999999</v>
       </c>
       <c r="D100">
         <v>2.15</v>
       </c>
       <c r="E100">
-        <v>73356230656</v>
+        <v>73188499456</v>
       </c>
       <c r="F100">
         <v>16.952998999999998</v>
       </c>
       <c r="G100">
-        <v>4.9141613944267117</v>
+        <v>4.9329376985754063</v>
       </c>
       <c r="H100">
         <v>48.609000000000002</v>
@@ -3634,22 +3731,22 @@
         <v>111</v>
       </c>
       <c r="B101">
-        <v>17.79438</v>
+        <v>17.977650000000001</v>
       </c>
       <c r="C101">
-        <v>2.4681801999999999</v>
+        <v>2.4936006000000002</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101">
-        <v>67115544576</v>
+        <v>67806785536</v>
       </c>
       <c r="F101">
         <v>15.07</v>
       </c>
       <c r="G101">
-        <v>5.6197518542371254</v>
+        <v>5.5624622795526664</v>
       </c>
       <c r="H101" t="s">
         <v>10</v>
@@ -3659,6 +3756,54 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B101">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThanOrEqual">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C101">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThanOrEqual">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D101">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F101">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThanOrEqual">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G101">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H101">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>